--- a/FinalCheck/Template.xlsx
+++ b/FinalCheck/Template.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
